--- a/data-raw/files/locations/norway_locations_ward.xlsx
+++ b/data-raw/files/locations/norway_locations_ward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riwh\OneDrive - Folkehelseinstituttet\packages\fhidata\inst\rawdata\locations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/homes/raw996/dev/containers/csids-sc8/csids-rstudio/csdata/data-raw/files/locations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="294" documentId="13_ncr:1_{E0AA4139-EC72-7240-B4DA-8072FE8D2BA7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{C65F4175-99E6-428E-A6A1-12B3CCDBC8EE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9F7BEB-329A-9F43-9A3C-B91B5E6DAB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="500" windowWidth="49780" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="norwayLocations" sheetId="1" r:id="rId1"/>
@@ -141,9 +141,6 @@
     <t>Arna</t>
   </si>
   <si>
-    <t>Bergenhus</t>
-  </si>
-  <si>
     <t>Fana</t>
   </si>
   <si>
@@ -192,166 +189,169 @@
     <t>municip5001</t>
   </si>
   <si>
-    <t>wardstavanger110301</t>
-  </si>
-  <si>
-    <t>wardstavanger110302</t>
-  </si>
-  <si>
-    <t>wardstavanger110303</t>
-  </si>
-  <si>
-    <t>wardstavanger110304</t>
-  </si>
-  <si>
-    <t>wardstavanger110305</t>
-  </si>
-  <si>
-    <t>wardstavanger110306</t>
-  </si>
-  <si>
-    <t>wardstavanger110307</t>
-  </si>
-  <si>
-    <t>wardstavanger110308</t>
-  </si>
-  <si>
-    <t>wardstavanger110309</t>
-  </si>
-  <si>
-    <t>wardbergen460101</t>
-  </si>
-  <si>
-    <t>wardbergen460102</t>
-  </si>
-  <si>
-    <t>wardbergen460103</t>
-  </si>
-  <si>
-    <t>wardbergen460104</t>
-  </si>
-  <si>
-    <t>wardbergen460105</t>
-  </si>
-  <si>
-    <t>wardbergen460106</t>
-  </si>
-  <si>
-    <t>wardbergen460107</t>
-  </si>
-  <si>
-    <t>wardbergen460108</t>
-  </si>
-  <si>
-    <t>wardbergen120101</t>
-  </si>
-  <si>
-    <t>wardbergen120102</t>
-  </si>
-  <si>
-    <t>wardbergen120103</t>
-  </si>
-  <si>
-    <t>wardbergen120104</t>
-  </si>
-  <si>
-    <t>wardbergen120105</t>
-  </si>
-  <si>
-    <t>wardbergen120106</t>
-  </si>
-  <si>
-    <t>wardbergen120107</t>
-  </si>
-  <si>
-    <t>wardbergen120108</t>
-  </si>
-  <si>
-    <t>wardtrondheim500101</t>
-  </si>
-  <si>
-    <t>wardtrondheim500102</t>
-  </si>
-  <si>
-    <t>wardtrondheim500103</t>
-  </si>
-  <si>
-    <t>wardtrondheim500104</t>
-  </si>
-  <si>
-    <t>wardtrondheim160101</t>
-  </si>
-  <si>
-    <t>wardtrondheim160102</t>
-  </si>
-  <si>
-    <t>wardtrondheim160103</t>
-  </si>
-  <si>
-    <t>wardtrondheim160104</t>
-  </si>
-  <si>
-    <t>wardoslo030101</t>
-  </si>
-  <si>
-    <t>wardoslo030102</t>
-  </si>
-  <si>
-    <t>wardoslo030103</t>
-  </si>
-  <si>
-    <t>wardoslo030104</t>
-  </si>
-  <si>
-    <t>wardoslo030105</t>
-  </si>
-  <si>
-    <t>wardoslo030106</t>
-  </si>
-  <si>
-    <t>wardoslo030107</t>
-  </si>
-  <si>
-    <t>wardoslo030108</t>
-  </si>
-  <si>
-    <t>wardoslo030109</t>
-  </si>
-  <si>
-    <t>wardoslo030110</t>
-  </si>
-  <si>
-    <t>wardoslo030111</t>
-  </si>
-  <si>
-    <t>wardoslo030112</t>
-  </si>
-  <si>
-    <t>wardoslo030113</t>
-  </si>
-  <si>
-    <t>wardoslo030114</t>
-  </si>
-  <si>
-    <t>wardoslo030115</t>
-  </si>
-  <si>
     <t>Årstad</t>
   </si>
   <si>
     <t>Åsane</t>
   </si>
   <si>
-    <t>wardoslo030116</t>
-  </si>
-  <si>
-    <t>wardoslo030117</t>
-  </si>
-  <si>
     <t>Sentrum</t>
   </si>
   <si>
     <t>Marka</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030101</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030102</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030103</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030104</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030105</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030106</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030107</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030108</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030109</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030110</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030111</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030112</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030113</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030114</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030115</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030116</t>
+  </si>
+  <si>
+    <t>wardoslo_nor030117</t>
+  </si>
+  <si>
+    <t>wardstavanger_nor110301</t>
+  </si>
+  <si>
+    <t>wardstavanger_nor110302</t>
+  </si>
+  <si>
+    <t>wardstavanger_nor110303</t>
+  </si>
+  <si>
+    <t>wardstavanger_nor110304</t>
+  </si>
+  <si>
+    <t>wardstavanger_nor110305</t>
+  </si>
+  <si>
+    <t>wardstavanger_nor110306</t>
+  </si>
+  <si>
+    <t>wardstavanger_nor110307</t>
+  </si>
+  <si>
+    <t>wardstavanger_nor110308</t>
+  </si>
+  <si>
+    <t>wardstavanger_nor110309</t>
+  </si>
+  <si>
+    <t>wardbergen_nor460101</t>
+  </si>
+  <si>
+    <t>wardbergen_nor120101</t>
+  </si>
+  <si>
+    <t>wardbergen_nor460102</t>
+  </si>
+  <si>
+    <t>wardbergen_nor120102</t>
+  </si>
+  <si>
+    <t>bergen_norhus</t>
+  </si>
+  <si>
+    <t>wardbergen_nor460103</t>
+  </si>
+  <si>
+    <t>wardbergen_nor120103</t>
+  </si>
+  <si>
+    <t>wardbergen_nor460104</t>
+  </si>
+  <si>
+    <t>wardbergen_nor120104</t>
+  </si>
+  <si>
+    <t>wardbergen_nor460105</t>
+  </si>
+  <si>
+    <t>wardbergen_nor120105</t>
+  </si>
+  <si>
+    <t>wardbergen_nor460106</t>
+  </si>
+  <si>
+    <t>wardbergen_nor120106</t>
+  </si>
+  <si>
+    <t>wardbergen_nor460107</t>
+  </si>
+  <si>
+    <t>wardbergen_nor120107</t>
+  </si>
+  <si>
+    <t>wardbergen_nor460108</t>
+  </si>
+  <si>
+    <t>wardbergen_nor120108</t>
+  </si>
+  <si>
+    <t>wardtrondheim_nor500101</t>
+  </si>
+  <si>
+    <t>wardtrondheim_nor160101</t>
+  </si>
+  <si>
+    <t>wardtrondheim_nor500102</t>
+  </si>
+  <si>
+    <t>wardtrondheim_nor160102</t>
+  </si>
+  <si>
+    <t>wardtrondheim_nor500103</t>
+  </si>
+  <si>
+    <t>wardtrondheim_nor160103</t>
+  </si>
+  <si>
+    <t>wardtrondheim_nor500104</t>
+  </si>
+  <si>
+    <t>wardtrondheim_nor160104</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -426,7 +426,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -725,22 +725,22 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="H44" sqref="H44:H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.81640625" customWidth="1"/>
-    <col min="9" max="1023" width="10.453125" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" customWidth="1"/>
+    <col min="9" max="1023" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -766,12 +766,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2005</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -783,12 +783,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2005</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -800,12 +800,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2005</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -817,12 +817,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2005</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -834,12 +834,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2005</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -851,12 +851,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2005</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -868,12 +868,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2005</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
@@ -885,12 +885,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -902,12 +902,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2005</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
@@ -919,12 +919,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2005</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -936,12 +936,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2005</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
@@ -953,12 +953,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2005</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
         <v>6</v>
@@ -970,12 +970,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2005</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -987,12 +987,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2005</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -1004,12 +1004,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2005</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -1021,15 +1021,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2005</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
         <v>24</v>
@@ -1038,15 +1038,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2005</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s">
         <v>24</v>
@@ -1055,12 +1055,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2005</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
@@ -1072,12 +1072,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2005</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
         <v>26</v>
@@ -1089,12 +1089,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2005</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s">
         <v>27</v>
@@ -1106,12 +1106,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2005</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s">
         <v>28</v>
@@ -1123,12 +1123,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2005</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s">
         <v>29</v>
@@ -1140,12 +1140,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2005</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s">
         <v>30</v>
@@ -1157,12 +1157,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2005</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s">
         <v>31</v>
@@ -1174,12 +1174,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2005</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
         <v>32</v>
@@ -1191,12 +1191,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2005</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F27" t="s">
         <v>33</v>
@@ -1208,7 +1208,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2005</v>
       </c>
@@ -1216,22 +1216,22 @@
         <v>2019</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F28" t="s">
         <v>36</v>
       </c>
       <c r="G28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" t="s">
         <v>44</v>
       </c>
-      <c r="H28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2005</v>
       </c>
@@ -1239,22 +1239,22 @@
         <v>2019</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" t="s">
         <v>44</v>
       </c>
-      <c r="H29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2005</v>
       </c>
@@ -1262,22 +1262,22 @@
         <v>2019</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" t="s">
         <v>44</v>
       </c>
-      <c r="H30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2005</v>
       </c>
@@ -1285,22 +1285,22 @@
         <v>2019</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" t="s">
         <v>44</v>
       </c>
-      <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2005</v>
       </c>
@@ -1308,22 +1308,22 @@
         <v>2019</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" t="s">
         <v>44</v>
       </c>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2005</v>
       </c>
@@ -1331,22 +1331,22 @@
         <v>2019</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" t="s">
         <v>44</v>
       </c>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2005</v>
       </c>
@@ -1354,22 +1354,22 @@
         <v>2019</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" t="s">
         <v>44</v>
       </c>
-      <c r="H34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2005</v>
       </c>
@@ -1377,158 +1377,158 @@
         <v>2019</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F35" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" t="s">
         <v>43</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>44</v>
       </c>
-      <c r="H35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2020</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="F36" t="s">
         <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2020</v>
       </c>
       <c r="E37" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2020</v>
       </c>
       <c r="E38" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>2020</v>
       </c>
       <c r="E39" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>2020</v>
       </c>
       <c r="E40" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>2020</v>
       </c>
       <c r="E41" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>2020</v>
       </c>
       <c r="E42" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="F42" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>2020</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="F43" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>2005</v>
       </c>
@@ -1536,22 +1536,22 @@
         <v>2017</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G44" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" t="s">
         <v>51</v>
       </c>
-      <c r="H44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>2005</v>
       </c>
@@ -1559,22 +1559,22 @@
         <v>2017</v>
       </c>
       <c r="C45" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E45" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G45" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45" t="s">
         <v>51</v>
       </c>
-      <c r="H45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>2005</v>
       </c>
@@ -1582,22 +1582,22 @@
         <v>2017</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G46" t="s">
+        <v>50</v>
+      </c>
+      <c r="H46" t="s">
         <v>51</v>
       </c>
-      <c r="H46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>2005</v>
       </c>
@@ -1605,95 +1605,91 @@
         <v>2017</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="E47" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="F47" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" t="s">
         <v>50</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>51</v>
       </c>
-      <c r="H47" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>2018</v>
       </c>
       <c r="E48" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="F48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>2018</v>
       </c>
       <c r="E49" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="F49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>2018</v>
       </c>
       <c r="E50" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H50" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>2018</v>
       </c>
       <c r="E51" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="F51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{24CC4851-5B74-4AC4-84B1-3E953EF15743}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H1">
-      <sortCondition ref="E1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:H1" xr:uid="{24CC4851-5B74-4AC4-84B1-3E953EF15743}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
